--- a/pred_ohlcv/54_21/2020-01-11 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETH ohlcv.xlsx
@@ -3954,7 +3954,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1125.056399321674</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1051.052999321674</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1046.760999321674</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1065.968599321674</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1001.878999321674</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-954.8379993216738</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-987.6240993216738</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-936.4045993216738</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-934.4170993216737</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1275.345199321674</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1235.309199321674</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1226.872999321674</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3816.416044502246</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-3816.416044502246</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-3892.924044502246</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-3655.683533652612</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-3689.427533652613</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3608.102133652612</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-1227.668158104841</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-1082.785259491104</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>218.9855739087367</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-237.5156260912633</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-177.0914243478013</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-320.6781243478013</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-543.6625243478013</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1088.567624347801</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1319.216967739322</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1352.295567739322</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-1583.489367739322</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-1554.695967739322</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-1677.295667739322</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-1745.721767739322</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-1745.721767739322</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-1612.026579323543</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-1612.026579323543</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-1642.632179323543</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-1667.985079323543</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-1447.53633906055</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-1327.16123906055</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1445.73043906055</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-1420.80323906055</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETH ohlcv.xlsx
@@ -3954,7 +3954,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1125.056399321674</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1051.052999321674</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1046.760999321674</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1065.968599321674</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1001.878999321674</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-954.8379993216738</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-987.6240993216738</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-936.4045993216738</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-934.4170993216737</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1275.345199321674</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1235.309199321674</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1226.872999321674</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-3925.464544502246</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-3666.122630455855</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-3655.683533652612</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-3689.427533652613</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3608.102133652612</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-1227.668158104841</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-1082.785259491104</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>218.9855739087367</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-237.5156260912633</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-177.0914243478013</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-320.6781243478013</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-543.6625243478013</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1088.567624347801</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1319.216967739322</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1352.295567739322</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-1583.489367739322</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-1554.695967739322</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-1677.295667739322</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-1745.721767739322</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
